--- a/Win32/Binaries/Table/hero_equip_rule.xlsx
+++ b/Win32/Binaries/Table/hero_equip_rule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\design\Data\装备宝石时装\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BOC_A_SVN\京剧猫ACT-design\Data\装备宝石时装\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -807,6 +807,65 @@
         <v>30</v>
       </c>
       <c r="S5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6">
         <v>30</v>
       </c>
     </row>
